--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE7E62D-48E0-4C15-AEA8-CC4378605A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC35BC7-3F6C-426D-9CC2-F10E7EC70BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -566,7 +566,7 @@
   <dimension ref="D3:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -693,8 +693,8 @@
       <c r="J6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="1">
-        <v>70</v>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>38</v>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC35BC7-3F6C-426D-9CC2-F10E7EC70BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2616AA2-19B5-4FE1-AC0A-B8CB1AB9D050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -563,94 +563,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D3:L19"/>
+  <dimension ref="C3:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="12.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="28.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="25.25" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="28.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="25.25" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
@@ -662,290 +665,287 @@
         <v>2</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="4:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="1">
+    </row>
+    <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="1">
         <v>10001</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
       <c r="F6" s="1">
-        <v>3</v>
+        <v>10001</v>
       </c>
       <c r="G6" s="1">
         <v>10001</v>
       </c>
       <c r="H6" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I6" s="1">
         <v>0</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="1">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
         <v>10002</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
       <c r="F7" s="1">
-        <v>4</v>
+        <v>10002</v>
       </c>
       <c r="G7" s="1">
         <v>10002</v>
       </c>
       <c r="H7" s="1">
-        <v>10002</v>
-      </c>
-      <c r="I7" s="1">
         <v>0</v>
       </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="1">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
         <v>10003</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
       <c r="F8" s="1">
-        <v>5</v>
+        <v>10003</v>
       </c>
       <c r="G8" s="1">
         <v>10003</v>
       </c>
       <c r="H8" s="1">
-        <v>10003</v>
-      </c>
-      <c r="I8" s="1">
         <v>0</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="1">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
         <v>10004</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>10004</v>
       </c>
       <c r="G9" s="1">
         <v>10004</v>
       </c>
       <c r="H9" s="1">
-        <v>10004</v>
-      </c>
-      <c r="I9" s="1">
         <v>0</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D10" s="1">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
         <v>10005</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
       <c r="F10" s="1">
-        <v>4</v>
+        <v>10005</v>
       </c>
       <c r="G10" s="1">
         <v>10005</v>
       </c>
       <c r="H10" s="1">
-        <v>10005</v>
-      </c>
-      <c r="I10" s="1">
         <v>0</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="1">
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
         <v>10006</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
       <c r="F11" s="1">
-        <v>5</v>
+        <v>10006</v>
       </c>
       <c r="G11" s="1">
         <v>10006</v>
       </c>
-      <c r="H11" s="1">
-        <v>10006</v>
+      <c r="H11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="1">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
         <v>10007</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
       <c r="F12" s="1">
-        <v>5</v>
+        <v>10007</v>
       </c>
       <c r="G12" s="1">
         <v>10007</v>
       </c>
       <c r="H12" s="1">
-        <v>10007</v>
-      </c>
-      <c r="I12" s="1">
         <v>0</v>
       </c>
+      <c r="I12" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D13" s="1">
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
         <v>10008</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
       <c r="F13" s="1">
-        <v>5</v>
+        <v>10008</v>
       </c>
       <c r="G13" s="1">
         <v>10008</v>
       </c>
       <c r="H13" s="1">
-        <v>10008</v>
-      </c>
-      <c r="I13" s="1">
         <v>0</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="1">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
         <v>10009</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
       <c r="F14" s="1">
-        <v>5</v>
+        <v>10009</v>
       </c>
       <c r="G14" s="1">
         <v>10009</v>
       </c>
       <c r="H14" s="1">
-        <v>10009</v>
-      </c>
-      <c r="I14" s="1">
         <v>0</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D19" s="1"/>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2616AA2-19B5-4FE1-AC0A-B8CB1AB9D050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378DC4D4-08C1-4B71-8094-D419BA33C645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30105" yWindow="1995" windowWidth="23730" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -119,25 +119,6 @@
     <t>战斗猩猩</t>
   </si>
   <si>
-    <t>嗒嗒嗒</t>
-  </si>
-  <si>
-    <t>圣光战熊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>传承坐骑:龙龙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>传承坐骑:欢欢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
   </si>
   <si>
@@ -153,13 +134,6 @@
     <t>每次普通攻击附加的伤害值100</t>
   </si>
   <si>
-    <t>伤害加成+3%</t>
-  </si>
-  <si>
-    <t>伤害加成+3%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -177,14 +151,6 @@
   </si>
   <si>
     <t>通过游戏内的签到系统获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过游戏内的冒险家系统奖励获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过游戏内的黄金令牌系统奖励获得</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -563,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:K19"/>
+  <dimension ref="C3:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -691,13 +657,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.3">
@@ -720,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
@@ -749,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
@@ -778,13 +744,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.3">
@@ -807,145 +773,29 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C11" s="1">
-        <v>10006</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>10006</v>
-      </c>
-      <c r="G11" s="1">
-        <v>10006</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
-        <v>10007</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>10007</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10007</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
-        <v>10008</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>10008</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10008</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
-        <v>10009</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>10009</v>
-      </c>
-      <c r="G14" s="1">
-        <v>10009</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378DC4D4-08C1-4B71-8094-D419BA33C645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3664C21-E1F1-4403-824F-1402365F6EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30105" yWindow="1995" windowWidth="23730" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -103,58 +103,91 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>通过游戏内的成就系统获得</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>的卢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>马</t>
-  </si>
-  <si>
-    <t>作战山羊</t>
-  </si>
-  <si>
-    <t>爱心鳄鱼</t>
-  </si>
-  <si>
-    <t>决斗公牛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗猩猩</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>攻击+100</t>
-  </si>
-  <si>
-    <t>暴击概率+3%</t>
-  </si>
-  <si>
-    <t>血量上限+3%</t>
-  </si>
-  <si>
-    <t>每次普通攻击附加的伤害值100</t>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过游戏内的家园兑换获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过游戏内的抽卡系统获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过游戏内的成就系统获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过游戏内的签到系统获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100203;50@100603;10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋野猪</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角斗山羊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝影</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避概率+1%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击概率+1%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升50点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量上限+1%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过20级的主线任务获得</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应骑乘Buff</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveBuffID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403,50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202,0.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200303,0.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200103,0.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过游戏内的探险家积分获得</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏内排行第一自动激活(3天后)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -529,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:K15"/>
+  <dimension ref="C1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -547,10 +580,13 @@
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="19.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="25.25" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="12" max="12" width="16.875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
@@ -578,8 +614,11 @@
       <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -607,8 +646,11 @@
       <c r="K4" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>20</v>
@@ -636,16 +678,19 @@
       <c r="K5" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>10001</v>
@@ -657,24 +702,24 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="L6" s="1">
+        <v>99001001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
         <v>10002</v>
@@ -686,24 +731,27 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="L7" s="1">
+        <v>99001001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <v>10003</v>
@@ -715,24 +763,27 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="L8" s="1">
+        <v>99001001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
         <v>10004</v>
@@ -744,21 +795,24 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="L9" s="1">
+        <v>99001002</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -773,30 +827,38 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="L10" s="1">
+        <v>99001002</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
     </row>
+    <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3664C21-E1F1-4403-824F-1402365F6EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A697321A-68D5-42A5-8228-69479B1C779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,7 +565,7 @@
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A697321A-68D5-42A5-8228-69479B1C779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618DABA8-8526-4BDB-BA99-41F7448A911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -187,6 +187,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过游戏内的令牌系统获得</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +569,7 @@
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -737,7 +741,7 @@
         <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L7" s="1">
         <v>99001001</v>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,204 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618DABA8-8526-4BDB-BA99-41F7448A911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>品质</t>
+  </si>
+  <si>
+    <t>图标显示</t>
+  </si>
+  <si>
+    <t>模型ID</t>
+  </si>
+  <si>
+    <t>拖尾特效ID</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>额外属性</t>
+  </si>
+  <si>
+    <t>对应骑乘Buff</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>ModelID</t>
+  </si>
+  <si>
+    <t>TuoWeiEffectID</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>AddProperty</t>
+  </si>
+  <si>
+    <t>GetDes</t>
+  </si>
+  <si>
+    <t>MoveBuffID</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>品质</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖尾特效ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外属性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quality</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModelID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TuoWeiEffectID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Des</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddProperty</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetDes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>马</t>
   </si>
   <si>
     <t>无</t>
   </si>
   <si>
+    <t>通过25级的坐骑任务获得(赏金猎人领取)</t>
+  </si>
+  <si>
+    <t>冲锋野猪</t>
+  </si>
+  <si>
+    <t>攻击提升50点</t>
+  </si>
+  <si>
+    <t>100403,50</t>
+  </si>
+  <si>
+    <t>通过游戏内的令牌系统获得</t>
+  </si>
+  <si>
+    <t>角斗山羊</t>
+  </si>
+  <si>
+    <t>血量上限+1%</t>
+  </si>
+  <si>
+    <t>100202,0.01</t>
+  </si>
+  <si>
     <t>通过游戏内的成就系统获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>的卢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>马</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲锋野猪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>角斗山羊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避概率+1%</t>
+  </si>
+  <si>
+    <t>200303,0.01</t>
+  </si>
+  <si>
+    <t>游戏内排行第一自动激活(3天后)</t>
   </si>
   <si>
     <t>绝影</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避概率+1%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>暴击概率+1%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击提升50点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量上限+1%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过20级的主线任务获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应骑乘Buff</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveBuffID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100403,50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100202,0.01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200303,0.01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>200103,0.01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通过游戏内的探险家积分获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏内排行第一自动激活(3天后)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过游戏内的令牌系统获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,24 +158,161 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +325,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -249,9 +520,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -263,19 +776,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -560,19 +1112,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -588,110 +1140,110 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1"/>
+    <row r="3" ht="20.1" customHeight="1" spans="3:12">
       <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="3:12">
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>33</v>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="3" t="s">
+    <row r="5" ht="20.1" customHeight="1" spans="3:12">
+      <c r="C5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -706,21 +1258,21 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="L6" s="1">
         <v>99001001</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="20.1" customHeight="1" spans="3:12">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -735,24 +1287,24 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="L7" s="1">
         <v>99001001</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:12">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -767,24 +1319,24 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="L8" s="1">
         <v>99001001</v>
       </c>
     </row>
-    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:12">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -799,24 +1351,24 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L9" s="1">
         <v>99001002</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:12">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -831,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>38</v>
@@ -843,29 +1395,29 @@
         <v>99001002</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:3">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:3">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="20.1" customHeight="1" spans="3:3">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:3">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" ht="20.1" customHeight="1"/>
+    <row r="17" ht="20.1" customHeight="1"/>
+    <row r="18" ht="20.1" customHeight="1"/>
+    <row r="19" ht="20.1" customHeight="1"/>
+    <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBD4396-B34E-4DA2-85B4-C6386578B3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C92842E-92A6-429E-B41B-7AA05EE44A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -141,6 +141,34 @@
   </si>
   <si>
     <t>通过游戏内的令牌系统获得</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100403,100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升100点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>麋鹿之春</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护卫牦牛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率+1%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>202103,0.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过游戏内的坐骑马绳兑换获得</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -205,13 +233,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,7 +552,7 @@
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -796,10 +827,68 @@
       </c>
     </row>
     <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>10006</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10006</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10006</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="1">
+        <v>99001002</v>
+      </c>
     </row>
     <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>10007</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10007</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10007</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="1">
+        <v>99001002</v>
+      </c>
     </row>
     <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C92842E-92A6-429E-B41B-7AA05EE44A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F5D4B8-6A72-40C5-ABD0-99F96C72C5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>护卫牦牛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>重击概率+1%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -169,6 +165,22 @@
   </si>
   <si>
     <t>通过游戏内的坐骑马绳兑换获得</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护牦牛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炎之龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100402,0.01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升1%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +564,7 @@
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -852,7 +864,7 @@
         <v>40</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="1">
         <v>99001002</v>
@@ -863,7 +875,7 @@
         <v>10007</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -878,20 +890,49 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="L12" s="1">
         <v>99001002</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>10008</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10008</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10007</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="1">
+        <v>99001002</v>
+      </c>
     </row>
     <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F5D4B8-6A72-40C5-ABD0-99F96C72C5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21A6920-EC33-491D-8160-0044FEAC849C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -916,7 +916,7 @@
         <v>10008</v>
       </c>
       <c r="G13" s="1">
-        <v>10007</v>
+        <v>10008</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21A6920-EC33-491D-8160-0044FEAC849C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8473EA-55D7-47BF-8BC1-18AFFE03D35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>角斗山羊</t>
   </si>
   <si>
-    <t>血量上限+1%</t>
-  </si>
-  <si>
     <t>100202,0.01</t>
   </si>
   <si>
@@ -181,6 +178,10 @@
   </si>
   <si>
     <t>攻击提升1%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限+1%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +565,7 @@
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -704,7 +705,7 @@
         <v>22</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L6" s="1">
         <v>99001001</v>
@@ -736,7 +737,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L7" s="1">
         <v>99001001</v>
@@ -762,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L8" s="1">
         <v>99001001</v>
@@ -779,7 +780,7 @@
         <v>10004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -794,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="L9" s="1">
         <v>99001002</v>
@@ -811,7 +812,7 @@
         <v>10005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -826,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="L10" s="1">
         <v>99001002</v>
@@ -843,7 +844,7 @@
         <v>10006</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -858,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" s="1">
         <v>99001002</v>
@@ -875,7 +876,7 @@
         <v>10007</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -890,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L12" s="1">
         <v>99001002</v>
@@ -907,7 +908,7 @@
         <v>10008</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -922,13 +923,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L13" s="1">
         <v>99001002</v>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8473EA-55D7-47BF-8BC1-18AFFE03D35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B57940-7ACC-4517-B2A9-93809C14B0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,7 @@
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -929,7 +929,7 @@
         <v>47</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L13" s="1">
         <v>99001002</v>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B57940-7ACC-4517-B2A9-93809C14B0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EFA5B0-67FD-469E-9C3A-C47017FAC702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,7 @@
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -932,7 +932,7 @@
         <v>36</v>
       </c>
       <c r="L13" s="1">
-        <v>99001002</v>
+        <v>99001003</v>
       </c>
     </row>
     <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EFA5B0-67FD-469E-9C3A-C47017FAC702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>ID</t>
   </si>
@@ -91,6 +85,9 @@
     <t>无</t>
   </si>
   <si>
+    <t>通过25级的坐骑任务获得(赏金猎人领取)</t>
+  </si>
+  <si>
     <t>冲锋野猪</t>
   </si>
   <si>
@@ -100,9 +97,15 @@
     <t>100403,50</t>
   </si>
   <si>
+    <t>通过游戏内的令牌系统获得</t>
+  </si>
+  <si>
     <t>角斗山羊</t>
   </si>
   <si>
+    <t>生命上限+1%</t>
+  </si>
+  <si>
     <t>100202,0.01</t>
   </si>
   <si>
@@ -112,10 +115,10 @@
     <t>的卢</t>
   </si>
   <si>
-    <t>闪避概率+1%</t>
-  </si>
-  <si>
-    <t>200303,0.01</t>
+    <t>暴击概率+1%</t>
+  </si>
+  <si>
+    <t>200103,0.01</t>
   </si>
   <si>
     <t>游戏内排行第一自动激活(3天后)</t>
@@ -124,72 +127,56 @@
     <t>绝影</t>
   </si>
   <si>
-    <t>暴击概率+1%</t>
-  </si>
-  <si>
-    <t>200103,0.01</t>
-  </si>
-  <si>
     <t>通过游戏内的探险家积分获得</t>
   </si>
   <si>
-    <t>通过25级的坐骑任务获得(赏金猎人领取)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过游戏内的令牌系统获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>麋鹿之春</t>
+  </si>
+  <si>
+    <t>攻击提升100点</t>
   </si>
   <si>
     <t>100403,100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击提升100点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>麋鹿之春</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过游戏内的坐骑马绳兑换获得</t>
+  </si>
+  <si>
+    <t>守护牦牛</t>
   </si>
   <si>
     <t>重击概率+1%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>202103,0.01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过游戏内的坐骑马绳兑换获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护牦牛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>熔炎之龙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升1%</t>
   </si>
   <si>
     <t>100402,0.01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击提升1%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命上限+1%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技之猩</t>
+  </si>
+  <si>
+    <t>通过游戏内的竞技场第一获得</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,7 +188,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -209,18 +195,154 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +355,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -242,9 +550,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -255,23 +805,65 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -556,19 +1148,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -584,9 +1176,9 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1"/>
+    <row r="3" ht="20.1" customHeight="1" spans="3:12">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -618,7 +1210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="20.1" customHeight="1" spans="3:12">
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -650,7 +1242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="20.1" customHeight="1" spans="3:12">
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
@@ -682,7 +1274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -705,18 +1297,18 @@
         <v>22</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="L6" s="1">
         <v>99001001</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="20.1" customHeight="1" spans="3:12">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -731,24 +1323,24 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L7" s="1">
         <v>99001001</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:12">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -763,24 +1355,24 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L8" s="1">
         <v>99001001</v>
       </c>
     </row>
-    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:12">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -795,24 +1387,24 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L9" s="1">
-        <v>99001002</v>
+        <v>99001003</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:12">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -827,24 +1419,24 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L10" s="1">
         <v>99001002</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:12">
       <c r="C11" s="1">
         <v>10006</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -859,24 +1451,24 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L11" s="1">
         <v>99001002</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:12">
       <c r="C12" s="1">
         <v>10007</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -891,24 +1483,24 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L12" s="1">
         <v>99001002</v>
       </c>
     </row>
-    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:12">
       <c r="C13" s="1">
         <v>10008</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -923,32 +1515,64 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L13" s="1">
         <v>99001003</v>
       </c>
     </row>
-    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
+    <row r="14" ht="20.1" customHeight="1" spans="3:12">
+      <c r="C14" s="1">
+        <v>10009</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>10009</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10009</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="1">
+        <v>99001002</v>
+      </c>
     </row>
-    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:3">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" ht="20.1" customHeight="1" spans="9:10">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" ht="20.1" customHeight="1"/>
+    <row r="18" ht="20.1" customHeight="1"/>
+    <row r="19" ht="20.1" customHeight="1"/>
+    <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDCCDC3-D274-48B6-934E-BE930E4C4CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -169,14 +175,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,151 +198,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,194 +217,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -550,251 +226,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -805,65 +239,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1148,19 +540,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1176,9 +568,9 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:12">
+    <row r="1" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:12">
+    <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1242,7 +634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:12">
+    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1274,7 +666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="6" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -1303,7 +695,7 @@
         <v>99001001</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:12">
+    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
@@ -1332,10 +724,10 @@
         <v>27</v>
       </c>
       <c r="L7" s="1">
-        <v>99001001</v>
-      </c>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:12">
+        <v>99001002</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
@@ -1367,7 +759,7 @@
         <v>99001001</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:12">
+    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
@@ -1399,7 +791,7 @@
         <v>99001003</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:12">
+    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
@@ -1431,7 +823,7 @@
         <v>99001002</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:12">
+    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10006</v>
       </c>
@@ -1453,7 +845,7 @@
       <c r="I11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -1463,7 +855,7 @@
         <v>99001002</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:12">
+    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>10007</v>
       </c>
@@ -1495,7 +887,7 @@
         <v>99001002</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:12">
+    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>10008</v>
       </c>
@@ -1527,23 +919,23 @@
         <v>99001003</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:12">
+    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>10009</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>10009</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>10009</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1559,20 +951,20 @@
         <v>99001002</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:3">
+    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="9:10">
+    <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" ht="20.1" customHeight="1"/>
-    <row r="18" ht="20.1" customHeight="1"/>
-    <row r="19" ht="20.1" customHeight="1"/>
-    <row r="20" ht="20.1" customHeight="1"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDCCDC3-D274-48B6-934E-BE930E4C4CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C126F2-EE19-437D-A1EE-CA4432A31BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -130,46 +130,47 @@
     <t>游戏内排行第一自动激活(3天后)</t>
   </si>
   <si>
+    <t>通过游戏内的探险家积分获得</t>
+  </si>
+  <si>
+    <t>麋鹿之春</t>
+  </si>
+  <si>
+    <t>攻击提升100点</t>
+  </si>
+  <si>
+    <t>100403,100</t>
+  </si>
+  <si>
+    <t>通过游戏内的坐骑马绳兑换获得</t>
+  </si>
+  <si>
+    <t>守护牦牛</t>
+  </si>
+  <si>
+    <t>重击概率+1%</t>
+  </si>
+  <si>
+    <t>202103,0.01</t>
+  </si>
+  <si>
+    <t>熔炎之龙</t>
+  </si>
+  <si>
+    <t>攻击提升1%</t>
+  </si>
+  <si>
+    <t>100402,0.01</t>
+  </si>
+  <si>
+    <t>竞技之猩</t>
+  </si>
+  <si>
+    <t>通过游戏内的竞技场第一获得</t>
+  </si>
+  <si>
     <t>绝影</t>
-  </si>
-  <si>
-    <t>通过游戏内的探险家积分获得</t>
-  </si>
-  <si>
-    <t>麋鹿之春</t>
-  </si>
-  <si>
-    <t>攻击提升100点</t>
-  </si>
-  <si>
-    <t>100403,100</t>
-  </si>
-  <si>
-    <t>通过游戏内的坐骑马绳兑换获得</t>
-  </si>
-  <si>
-    <t>守护牦牛</t>
-  </si>
-  <si>
-    <t>重击概率+1%</t>
-  </si>
-  <si>
-    <t>202103,0.01</t>
-  </si>
-  <si>
-    <t>熔炎之龙</t>
-  </si>
-  <si>
-    <t>攻击提升1%</t>
-  </si>
-  <si>
-    <t>100402,0.01</t>
-  </si>
-  <si>
-    <t>竞技之猩</t>
-  </si>
-  <si>
-    <t>通过游戏内的竞技场第一获得</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -188,6 +189,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -195,11 +197,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -549,7 +553,7 @@
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -796,7 +800,7 @@
         <v>10005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -817,7 +821,7 @@
         <v>34</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="1">
         <v>99001002</v>
@@ -828,7 +832,7 @@
         <v>10006</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -843,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="L11" s="1">
         <v>99001002</v>
@@ -860,7 +864,7 @@
         <v>10007</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -875,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12" s="1">
         <v>99001002</v>
@@ -892,7 +896,7 @@
         <v>10008</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -907,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" s="1">
         <v>99001003</v>
@@ -924,7 +928,7 @@
         <v>10009</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -939,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1">
         <v>99001002</v>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C126F2-EE19-437D-A1EE-CA4432A31BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF1B244-2D23-4F39-BAE0-092AEED8F012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -170,6 +170,14 @@
   </si>
   <si>
     <t>绝影</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升3%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100402,0.03</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +561,7 @@
   <dimension ref="C1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -911,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>36</v>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF1B244-2D23-4F39-BAE0-092AEED8F012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94F9ED8-1713-498F-8248-CDF4D207AB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="735" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>100402,0.01</t>
-  </si>
-  <si>
-    <t>竞技之猩</t>
   </si>
   <si>
     <t>通过游戏内的竞技场第一获得</t>
@@ -178,6 +175,30 @@
   </si>
   <si>
     <t>100402,0.03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽灵虚空龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害提升5%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技之猩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameShowUp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家名称显示上移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -558,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:L20"/>
+  <dimension ref="C1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -577,12 +598,13 @@
     <col min="10" max="10" width="19.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="25.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="13" max="13" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -613,8 +635,11 @@
       <c r="L3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -645,8 +670,11 @@
       <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
@@ -677,8 +705,11 @@
       <c r="L5" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -706,8 +737,11 @@
       <c r="L6" s="1">
         <v>99001001</v>
       </c>
-    </row>
-    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
@@ -738,8 +772,11 @@
       <c r="L7" s="1">
         <v>99001002</v>
       </c>
-    </row>
-    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
@@ -770,8 +807,11 @@
       <c r="L8" s="1">
         <v>99001001</v>
       </c>
-    </row>
-    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
@@ -802,13 +842,16 @@
       <c r="L9" s="1">
         <v>99001003</v>
       </c>
-    </row>
-    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -834,8 +877,11 @@
       <c r="L10" s="1">
         <v>99001002</v>
       </c>
-    </row>
-    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10006</v>
       </c>
@@ -866,8 +912,11 @@
       <c r="L11" s="1">
         <v>99001002</v>
       </c>
-    </row>
-    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>10007</v>
       </c>
@@ -898,8 +947,11 @@
       <c r="L12" s="1">
         <v>99001002</v>
       </c>
-    </row>
-    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>10008</v>
       </c>
@@ -919,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>36</v>
@@ -930,13 +982,16 @@
       <c r="L13" s="1">
         <v>99001003</v>
       </c>
-    </row>
-    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>10009</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -957,16 +1012,51 @@
         <v>46</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="1">
         <v>99001002</v>
       </c>
-    </row>
-    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>10010</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10010</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10010</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="1">
+        <v>99001004</v>
+      </c>
+      <c r="M15" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94F9ED8-1713-498F-8248-CDF4D207AB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="735" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>ID</t>
   </si>
@@ -49,6 +43,9 @@
     <t>对应骑乘Buff</t>
   </si>
   <si>
+    <t>玩家名称显示上移</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -79,12 +76,18 @@
     <t>MoveBuffID</t>
   </si>
   <si>
+    <t>NameShowUp</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>double</t>
+  </si>
+  <si>
     <t>马</t>
   </si>
   <si>
@@ -121,15 +124,24 @@
     <t>的卢</t>
   </si>
   <si>
+    <t>游戏爆率+5%</t>
+  </si>
+  <si>
+    <t>220303,0.01</t>
+  </si>
+  <si>
+    <t>游戏内排行第一自动激活(3天后)</t>
+  </si>
+  <si>
+    <t>绝影</t>
+  </si>
+  <si>
     <t>暴击概率+1%</t>
   </si>
   <si>
     <t>200103,0.01</t>
   </si>
   <si>
-    <t>游戏内排行第一自动激活(3天后)</t>
-  </si>
-  <si>
     <t>通过游戏内的探险家积分获得</t>
   </si>
   <si>
@@ -157,6 +169,15 @@
     <t>熔炎之龙</t>
   </si>
   <si>
+    <t>攻击提升3%</t>
+  </si>
+  <si>
+    <t>100402,0.03</t>
+  </si>
+  <si>
+    <t>竞技之猩</t>
+  </si>
+  <si>
     <t>攻击提升1%</t>
   </si>
   <si>
@@ -166,47 +187,23 @@
     <t>通过游戏内的竞技场第一获得</t>
   </si>
   <si>
-    <t>绝影</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击提升3%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100402,0.03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>幽灵虚空龙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>造成伤害提升5%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技之猩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NameShowUp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家名称显示上移</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,7 +215,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -226,18 +222,154 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,8 +382,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -259,11 +577,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,23 +832,62 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -573,19 +1172,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -598,13 +1197,13 @@
     <col min="10" max="10" width="19.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="25.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1"/>
+    <row r="3" ht="20.1" customHeight="1" spans="3:13">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -636,85 +1235,85 @@
         <v>8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="20.1" customHeight="1" spans="3:13">
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="20.1" customHeight="1" spans="3:13">
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -729,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L6" s="1">
         <v>99001001</v>
@@ -741,12 +1340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="20.1" customHeight="1" spans="3:13">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -761,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1">
         <v>99001002</v>
@@ -776,12 +1375,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:13">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -796,13 +1395,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1">
         <v>99001001</v>
@@ -811,12 +1410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:13">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -831,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L9" s="1">
         <v>99001003</v>
@@ -846,12 +1445,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:13">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -866,13 +1465,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L10" s="1">
         <v>99001002</v>
@@ -881,12 +1480,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:13">
       <c r="C11" s="1">
         <v>10006</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -901,13 +1500,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L11" s="1">
         <v>99001002</v>
@@ -916,12 +1515,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:13">
       <c r="C12" s="1">
         <v>10007</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -936,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L12" s="1">
         <v>99001002</v>
@@ -951,12 +1550,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:13">
       <c r="C13" s="1">
         <v>10008</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -971,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L13" s="1">
         <v>99001003</v>
@@ -986,7 +1585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="20.1" customHeight="1" spans="3:13">
       <c r="C14" s="1">
         <v>10009</v>
       </c>
@@ -1006,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="L14" s="1">
         <v>99001002</v>
@@ -1021,12 +1620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:13">
       <c r="C15" s="1">
         <v>10010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
@@ -1041,13 +1640,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L15" s="1">
         <v>99001004</v>
@@ -1056,17 +1655,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="9:10">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="20.1" customHeight="1"/>
+    <row r="18" ht="20.1" customHeight="1"/>
+    <row r="19" ht="20.1" customHeight="1"/>
+    <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0149578-676D-4404-9134-F818F97BCA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14085"/>
+    <workbookView xWindow="31020" yWindow="1230" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -148,24 +154,12 @@
     <t>麋鹿之春</t>
   </si>
   <si>
-    <t>攻击提升100点</t>
-  </si>
-  <si>
-    <t>100403,100</t>
-  </si>
-  <si>
     <t>通过游戏内的坐骑马绳兑换获得</t>
   </si>
   <si>
     <t>守护牦牛</t>
   </si>
   <si>
-    <t>重击概率+1%</t>
-  </si>
-  <si>
-    <t>202103,0.01</t>
-  </si>
-  <si>
     <t>熔炎之龙</t>
   </si>
   <si>
@@ -191,19 +185,33 @@
   </si>
   <si>
     <t>造成伤害提升5%</t>
+  </si>
+  <si>
+    <t>通过游戏内的累充系统获得</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击概率+2%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200103,0.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率+3%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>202103,0.03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +223,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -222,154 +231,18 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,194 +255,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -577,251 +264,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -832,62 +277,20 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1172,19 +575,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I12" sqref="I11:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1201,9 +604,9 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:13">
+    <row r="1" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:13">
+    <row r="4" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1273,7 +676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:13">
+    <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1308,7 +711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="6" spans="3:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -1340,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:13">
+    <row r="7" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
@@ -1366,7 +769,7 @@
         <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="L7" s="1">
         <v>99001002</v>
@@ -1375,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:13">
+    <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
@@ -1410,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:13">
+    <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
@@ -1445,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:13">
+    <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
@@ -1480,7 +883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:13">
+    <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10006</v>
       </c>
@@ -1500,13 +903,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="L11" s="1">
         <v>99001002</v>
@@ -1515,12 +918,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:13">
+    <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>10007</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -1535,13 +938,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="L12" s="1">
         <v>99001002</v>
@@ -1550,12 +953,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:13">
+    <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>10008</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -1570,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>42</v>
@@ -1585,12 +988,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:13">
+    <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>10009</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -1605,13 +1008,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L14" s="1">
         <v>99001002</v>
@@ -1620,12 +1023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:13">
+    <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>10010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
@@ -1640,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>42</v>
@@ -1655,17 +1058,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="9:10">
+    <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" ht="20.1" customHeight="1"/>
-    <row r="18" ht="20.1" customHeight="1"/>
-    <row r="19" ht="20.1" customHeight="1"/>
-    <row r="20" ht="20.1" customHeight="1"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0149578-676D-4404-9134-F818F97BCA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C583530-C3A1-4563-AB75-A3FD7CE91255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31020" yWindow="1230" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -106,21 +106,12 @@
     <t>冲锋野猪</t>
   </si>
   <si>
-    <t>攻击提升50点</t>
-  </si>
-  <si>
-    <t>100403,50</t>
-  </si>
-  <si>
     <t>通过游戏内的令牌系统获得</t>
   </si>
   <si>
     <t>角斗山羊</t>
   </si>
   <si>
-    <t>生命上限+1%</t>
-  </si>
-  <si>
     <t>100202,0.01</t>
   </si>
   <si>
@@ -140,12 +131,6 @@
   </si>
   <si>
     <t>绝影</t>
-  </si>
-  <si>
-    <t>暴击概率+1%</t>
-  </si>
-  <si>
-    <t>200103,0.01</t>
   </si>
   <si>
     <t>通过游戏内的探险家积分获得</t>
@@ -204,6 +189,26 @@
   </si>
   <si>
     <t>202103,0.03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害提升2%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100402,0.02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限+1%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击概率+2%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>200103,0.02</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +589,7 @@
   <dimension ref="C1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I11:J12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -763,13 +768,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L7" s="1">
         <v>99001002</v>
@@ -783,7 +788,7 @@
         <v>10003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -798,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L8" s="1">
         <v>99001001</v>
@@ -818,7 +823,7 @@
         <v>10004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -833,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L9" s="1">
         <v>99001003</v>
@@ -853,7 +858,7 @@
         <v>10005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -868,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L10" s="1">
         <v>99001002</v>
@@ -888,7 +893,7 @@
         <v>10006</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -903,13 +908,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L11" s="1">
         <v>99001002</v>
@@ -923,7 +928,7 @@
         <v>10007</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -938,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="1">
         <v>99001002</v>
@@ -958,7 +963,7 @@
         <v>10008</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -973,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L13" s="1">
         <v>99001003</v>
@@ -993,7 +998,7 @@
         <v>10009</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -1008,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="L14" s="1">
         <v>99001002</v>
@@ -1028,7 +1033,7 @@
         <v>10010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
@@ -1043,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L15" s="1">
         <v>99001004</v>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C583530-C3A1-4563-AB75-A3FD7CE91255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>ID</t>
   </si>
@@ -106,45 +100,69 @@
     <t>冲锋野猪</t>
   </si>
   <si>
+    <t>造成伤害提升2%</t>
+  </si>
+  <si>
+    <t>100402,0.02</t>
+  </si>
+  <si>
+    <t>通过游戏内的累充系统获得</t>
+  </si>
+  <si>
+    <t>角斗山羊</t>
+  </si>
+  <si>
+    <t>生命上限+1%</t>
+  </si>
+  <si>
+    <t>100202,0.01</t>
+  </si>
+  <si>
+    <t>通过游戏内的成就系统获得</t>
+  </si>
+  <si>
+    <t>的卢</t>
+  </si>
+  <si>
+    <t>游戏爆率+5%</t>
+  </si>
+  <si>
+    <t>220303,0.01</t>
+  </si>
+  <si>
+    <t>游戏内排行第一自动激活(3天后)</t>
+  </si>
+  <si>
+    <t>绝影</t>
+  </si>
+  <si>
+    <t>暴击概率+2%</t>
+  </si>
+  <si>
+    <t>200103,0.02</t>
+  </si>
+  <si>
+    <t>通过游戏内的探险家积分获得</t>
+  </si>
+  <si>
+    <t>麋鹿之春</t>
+  </si>
+  <si>
+    <t>通过游戏内的坐骑马绳兑换获得</t>
+  </si>
+  <si>
+    <t>守护牦牛</t>
+  </si>
+  <si>
+    <t>重击概率+3%</t>
+  </si>
+  <si>
+    <t>202103,0.03</t>
+  </si>
+  <si>
     <t>通过游戏内的令牌系统获得</t>
   </si>
   <si>
-    <t>角斗山羊</t>
-  </si>
-  <si>
-    <t>100202,0.01</t>
-  </si>
-  <si>
-    <t>通过游戏内的成就系统获得</t>
-  </si>
-  <si>
-    <t>的卢</t>
-  </si>
-  <si>
-    <t>游戏爆率+5%</t>
-  </si>
-  <si>
-    <t>220303,0.01</t>
-  </si>
-  <si>
-    <t>游戏内排行第一自动激活(3天后)</t>
-  </si>
-  <si>
-    <t>绝影</t>
-  </si>
-  <si>
-    <t>通过游戏内的探险家积分获得</t>
-  </si>
-  <si>
-    <t>麋鹿之春</t>
-  </si>
-  <si>
-    <t>通过游戏内的坐骑马绳兑换获得</t>
-  </si>
-  <si>
-    <t>守护牦牛</t>
-  </si>
-  <si>
     <t>熔炎之龙</t>
   </si>
   <si>
@@ -170,53 +188,19 @@
   </si>
   <si>
     <t>造成伤害提升5%</t>
-  </si>
-  <si>
-    <t>通过游戏内的累充系统获得</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击概率+2%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200103,0.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重击概率+3%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>202103,0.03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成伤害提升2%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>100402,0.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命上限+1%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击概率+2%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>200103,0.02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,7 +212,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -236,18 +219,154 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,8 +379,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -269,9 +574,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -283,19 +830,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -580,19 +1166,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -609,9 +1195,9 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1"/>
+    <row r="3" ht="20.1" customHeight="1" spans="3:13">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -646,7 +1232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="20.1" customHeight="1" spans="3:13">
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -681,7 +1267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="20.1" customHeight="1" spans="3:13">
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -716,7 +1302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -748,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="20.1" customHeight="1" spans="3:13">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
@@ -768,27 +1354,27 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1">
-        <v>99001002</v>
+        <v>99001005</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:13">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -803,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1">
         <v>99001001</v>
@@ -818,12 +1404,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:13">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -838,13 +1424,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L9" s="1">
         <v>99001003</v>
@@ -853,12 +1439,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:13">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -873,13 +1459,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L10" s="1">
         <v>99001002</v>
@@ -888,12 +1474,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:13">
       <c r="C11" s="1">
         <v>10006</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -908,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L11" s="1">
         <v>99001002</v>
@@ -923,12 +1509,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:13">
       <c r="C12" s="1">
         <v>10007</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -943,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="L12" s="1">
         <v>99001002</v>
@@ -958,12 +1544,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:13">
       <c r="C13" s="1">
         <v>10008</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -978,13 +1564,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="L13" s="1">
         <v>99001003</v>
@@ -993,12 +1579,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="20.1" customHeight="1" spans="3:13">
       <c r="C14" s="1">
         <v>10009</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -1013,13 +1599,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L14" s="1">
         <v>99001002</v>
@@ -1028,12 +1614,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:13">
       <c r="C15" s="1">
         <v>10010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
@@ -1048,13 +1634,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L15" s="1">
         <v>99001004</v>
@@ -1063,17 +1649,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="9:10">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="20.1" customHeight="1"/>
+    <row r="18" ht="20.1" customHeight="1"/>
+    <row r="19" ht="20.1" customHeight="1"/>
+    <row r="20" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27978F83-89B4-4D74-BF49-C405D2B450F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14085"/>
+    <workbookView xWindow="2760" yWindow="720" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -166,12 +172,6 @@
     <t>熔炎之龙</t>
   </si>
   <si>
-    <t>攻击提升3%</t>
-  </si>
-  <si>
-    <t>100402,0.03</t>
-  </si>
-  <si>
     <t>竞技之猩</t>
   </si>
   <si>
@@ -187,20 +187,23 @@
     <t>幽灵虚空龙</t>
   </si>
   <si>
-    <t>造成伤害提升5%</t>
+    <t>攻击提升5%且对怪伤害提升10%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害提升5%且对怪伤害提升10%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100402,0.05@203003;0.1@203103;0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +215,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -219,154 +223,18 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,194 +247,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -574,251 +256,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -830,58 +270,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1166,19 +567,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1195,9 +596,9 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1"/>
-    <row r="3" ht="20.1" customHeight="1" spans="3:13">
+    <row r="1" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:13">
+    <row r="4" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1267,7 +668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:13">
+    <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1302,7 +703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:13">
+    <row r="6" spans="3:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -1334,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:13">
+    <row r="7" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
@@ -1369,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:13">
+    <row r="8" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
@@ -1404,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:13">
+    <row r="9" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
@@ -1439,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:13">
+    <row r="10" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
@@ -1474,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:13">
+    <row r="11" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10006</v>
       </c>
@@ -1509,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:13">
+    <row r="12" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>10007</v>
       </c>
@@ -1544,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:13">
+    <row r="13" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>10008</v>
       </c>
@@ -1564,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>42</v>
@@ -1579,12 +980,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:13">
+    <row r="14" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>10009</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -1599,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="1">
         <v>99001002</v>
@@ -1614,12 +1015,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:13">
+    <row r="15" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>10010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
@@ -1634,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>42</v>
@@ -1649,17 +1050,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="9:10">
+    <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" ht="20.1" customHeight="1"/>
-    <row r="18" ht="20.1" customHeight="1"/>
-    <row r="19" ht="20.1" customHeight="1"/>
-    <row r="20" ht="20.1" customHeight="1"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27978F83-89B4-4D74-BF49-C405D2B450F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD29DEC-28D8-4D28-9C2D-874934EE17CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="720" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>100402,0.05@203003;0.1@203103;0.1</t>
+    <t>100402,0.05@203003,0.1@203103,0.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +589,7 @@
     <col min="6" max="7" width="28.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="30.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="25.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="13.875" style="2" customWidth="1"/>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD29DEC-28D8-4D28-9C2D-874934EE17CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64332EA7-8DA8-4AAD-8D45-C10B40AF71C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>100402,0.05@203003,0.1@203103,0.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北极巨熊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升5%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100402,0.05</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +588,7 @@
   <dimension ref="C1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1051,8 +1063,39 @@
       </c>
     </row>
     <row r="16" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="C16" s="1">
+        <v>10011</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10011</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10011</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="1">
+        <v>99001002</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64332EA7-8DA8-4AAD-8D45-C10B40AF71C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172A9313-13B3-41FD-836B-027CFC8CD917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30165" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{27F8CE97-7D6F-43E5-9544-4E835CD61823}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+直接读取SkillEffect下的文件名称</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
@@ -37,9 +73,6 @@
     <t>模型ID</t>
   </si>
   <si>
-    <t>拖尾特效ID</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
@@ -208,6 +241,10 @@
   </si>
   <si>
     <t>100402,0.05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖尾特效名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +281,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -584,11 +636,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -627,92 +679,92 @@
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="3:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -720,7 +772,7 @@
         <v>10001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -735,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="L6" s="1">
         <v>99001001</v>
@@ -752,7 +804,7 @@
         <v>10002</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -767,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="L7" s="1">
         <v>99001005</v>
@@ -787,7 +839,7 @@
         <v>10003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -802,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="L8" s="1">
         <v>99001001</v>
@@ -822,7 +874,7 @@
         <v>10004</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -837,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="L9" s="1">
         <v>99001003</v>
@@ -857,7 +909,7 @@
         <v>10005</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
@@ -872,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="L10" s="1">
         <v>99001002</v>
@@ -892,7 +944,7 @@
         <v>10006</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1">
         <v>4</v>
@@ -907,13 +959,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" s="1">
         <v>99001002</v>
@@ -927,7 +979,7 @@
         <v>10007</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -942,13 +994,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="L12" s="1">
         <v>99001002</v>
@@ -962,7 +1014,7 @@
         <v>10008</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1">
         <v>5</v>
@@ -977,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L13" s="1">
         <v>99001003</v>
@@ -997,7 +1049,7 @@
         <v>10009</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1">
         <v>4</v>
@@ -1012,13 +1064,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="L14" s="1">
         <v>99001002</v>
@@ -1032,7 +1084,7 @@
         <v>10010</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
@@ -1047,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="K15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L15" s="1">
         <v>99001004</v>
@@ -1067,7 +1119,7 @@
         <v>10011</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -1082,13 +1134,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L16" s="1">
         <v>99001002</v>
@@ -1105,5 +1157,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172A9313-13B3-41FD-836B-027CFC8CD917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FFCF86-4708-4D93-B2C9-364ECFDACAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30165" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZuoQiShowProto" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -245,6 +245,14 @@
   </si>
   <si>
     <t>拖尾特效名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过神兽碎片兑换获得</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵羊驼</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -639,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -652,7 +660,7 @@
     <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
     <col min="6" max="7" width="28.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="25.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.875" style="2" customWidth="1"/>
@@ -1149,10 +1157,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>10012</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10012</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10012</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="1">
+        <v>99001003</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ZuoQiShowConfig.xlsx
+++ b/Excel/ZuoQiShowConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FFCF86-4708-4D93-B2C9-364ECFDACAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F3587E-59D2-49F2-9B3C-8350701AE331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,7 +648,7 @@
   <dimension ref="C1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>41</v>
